--- a/STGGame/Assets/ResEditor/编号说明.xlsx
+++ b/STGGame/Assets/ResEditor/编号说明.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="10000" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="6795" yWindow="10005" windowWidth="25605" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>系统类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,31 +29,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>亿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百</t>
+    <t>系统配置说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类(01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类(02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类(03)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类(04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类(05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个(01)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十(02)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百(03)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千(04)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万(05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万(06)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万(07)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万(08)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿(09)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亿(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百亿(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿(12)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -61,122 +157,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统配置说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水序列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(01)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(02)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(03)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(04)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(05)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水序列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水序列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类(06)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
+    <t>种类(06)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类(01:场景特效,02:技能特效,03:模型特效,04:UI特效)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,7 +291,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -313,13 +306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -647,208 +641,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M8"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="11" style="1"/>
+    <col min="18" max="18" width="13.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14">
-      <c r="C1" s="2"/>
+    <row r="1" spans="4:18">
       <c r="D1" s="2"/>
-      <c r="N1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="3:14">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="4:18">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="4:18">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="4:18">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="4:18">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="4:18">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="4:18">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14">
-      <c r="C3" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="3:14">
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="3:14">
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="F8:G8"/>
+  <mergeCells count="21">
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
